--- a/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/main_pages.xlsx
+++ b/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/main_pages.xlsx
@@ -824,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -884,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -915,10 +915,10 @@
         <v>276897568</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1089,7 +1089,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1109,7 +1109,7 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1129,7 +1129,7 @@
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1163,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1180,7 +1180,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
